--- a/src/test/resources/Exceldata/dsAlgoTestData.xlsx
+++ b/src/test/resources/Exceldata/dsAlgoTestData.xlsx
@@ -16,30 +16,49 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="12">
   <si>
     <t>Inputpythoncode</t>
   </si>
   <si>
-    <t>ExpectedOutput</t>
-  </si>
-  <si>
     <t>print"hello";</t>
   </si>
   <si>
     <t>hello</t>
   </si>
   <si>
+    <t>Output</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>Expected Result</t>
+  </si>
+  <si>
+    <t>Actual Result</t>
+  </si>
+  <si>
     <t>print"hello";;;</t>
   </si>
   <si>
-    <t>NotVaild</t>
+    <t>Fail</t>
+  </si>
+  <si>
+    <t>SyntaxError: bad input on line 1</t>
+  </si>
+  <si>
+    <t>Failed</t>
+  </si>
+  <si>
+    <t>Passed</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -57,15 +76,59 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -73,13 +136,71 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -374,40 +495,60 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="23.88671875" customWidth="1"/>
-    <col min="2" max="2" width="18.6640625" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="23.88671875"/>
+    <col min="2" max="2" customWidth="true" width="31.109375"/>
+    <col min="3" max="3" customWidth="true" width="17.6640625"/>
+    <col min="4" max="4" customWidth="true" width="17.44140625"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
+      <c r="B2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" t="s" s="40">
+        <v>11</v>
+      </c>
     </row>
-    <row r="2" spans="1:2">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
+    <row r="3" spans="1:4">
+      <c r="A3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" t="s" s="44">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
